--- a/fhir/finnish-base-profiles/StructureDefinition-fi-base-appointment.xlsx
+++ b/fhir/finnish-base-profiles/StructureDefinition-fi-base-appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="367">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-rc1</t>
+    <t>2.0.0-rc2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T19:06:41+02:00</t>
+    <t>2025-05-11T16:31:48+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,38 +428,81 @@
     <t>Appointment.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Appointment.extension:restrictionParent</t>
+  </si>
+  <si>
+    <t>restrictionParent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fi/fhir/finnish-base-profiles/StructureDefinition/RestrictionParent}
+</t>
+  </si>
+  <si>
+    <t>Huoltajille luovuttamisen kielto</t>
+  </si>
+  <si>
+    <t>Huoltajille luovuttamisen kielto THL - Alaikäisen potilastietojen luovuttaminen huoltajille -luokitusta käyttäen. Sallitut arvot 1-4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Appointment.extension:releaseDateForPatientViewing</t>
+  </si>
+  <si>
+    <t>releaseDateForPatientViewing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fi/fhir/finnish-base-profiles/StructureDefinition/ReleaseDateForPatientViewing}
+</t>
+  </si>
+  <si>
+    <t>ReleaseDateForPatientViewing</t>
+  </si>
+  <si>
+    <t>The extension indicates the end date of the delay, i.e. the first day when the delayed appointment information can be displayed (e.g Omakanta) / *Laajennuksella ilmoitetaan viivästämisen päättymispäivä eli ensimmäinen päivä, jolloin viivästetty asiakirja voidaan näyttää (esim. Omakannassa)*.</t>
+  </si>
+  <si>
+    <t>Appointment.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Appointment.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -959,6 +1002,9 @@
   </si>
   <si>
     <t>Appointment.participant.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1419,7 +1465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1428,15 +1474,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.59375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.15234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.58984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1447,27 +1493,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="41.984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.40234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.44921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="90.15234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="129.51171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="66.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2419,7 +2465,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2438,17 +2484,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2485,16 +2529,14 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -2515,7 +2557,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2532,43 +2574,41 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2616,7 +2656,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2625,7 +2665,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
@@ -2634,7 +2674,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2648,12 +2688,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2662,7 +2704,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -2671,16 +2713,16 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2731,7 +2773,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2740,44 +2782,44 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -2786,21 +2828,23 @@
         <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2824,13 +2868,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -2848,42 +2892,42 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2894,7 +2938,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -2906,13 +2950,13 @@
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2939,11 +2983,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -2961,13 +3007,13 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
@@ -2976,27 +3022,27 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3004,30 +3050,32 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3052,11 +3100,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3074,13 +3124,13 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
@@ -3089,19 +3139,19 @@
         <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -3120,7 +3170,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3132,17 +3182,15 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N15" t="s" s="2">
         <v>183</v>
       </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3167,11 +3215,11 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3195,7 +3243,7 @@
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
@@ -3204,10 +3252,10 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3221,10 +3269,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3247,13 +3295,13 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3280,11 +3328,11 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3302,7 +3350,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3320,13 +3368,13 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -3334,10 +3382,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3348,7 +3396,7 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3360,15 +3408,17 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3393,11 +3443,11 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3415,13 +3465,13 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
@@ -3430,19 +3480,19 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -3473,7 +3523,7 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>200</v>
@@ -3508,11 +3558,9 @@
       <c r="X18" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Y18" s="2"/>
+      <c r="Z18" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -3545,27 +3593,27 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO18" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3576,7 +3624,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3585,16 +3633,16 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3621,13 +3669,11 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -3645,13 +3691,13 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
@@ -3660,27 +3706,27 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3691,7 +3737,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -3700,20 +3746,18 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3738,13 +3782,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -3762,13 +3806,13 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
@@ -3777,27 +3821,27 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3808,7 +3852,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3820,13 +3864,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3877,13 +3921,13 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
@@ -3892,27 +3936,27 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3923,7 +3967,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -3935,15 +3979,17 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -3992,13 +4038,13 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -4007,27 +4053,27 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4047,16 +4093,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4107,7 +4153,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4122,27 +4168,27 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4153,7 +4199,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4162,16 +4208,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4222,13 +4268,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4237,27 +4283,27 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AM24" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AO24" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4277,16 +4323,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4337,7 +4383,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4352,19 +4398,19 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -4383,7 +4429,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4392,16 +4438,16 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4458,7 +4504,7 @@
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4467,27 +4513,27 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AM26" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4510,17 +4556,15 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4569,7 +4613,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4584,7 +4628,7 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>270</v>
@@ -4615,7 +4659,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4627,17 +4671,15 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N28" t="s" s="2">
         <v>275</v>
       </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4692,7 +4734,7 @@
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -4701,27 +4743,27 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="AM28" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4744,15 +4786,17 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4801,7 +4845,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4816,38 +4860,38 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4859,7 +4903,7 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>286</v>
@@ -4867,7 +4911,9 @@
       <c r="M30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4916,13 +4962,13 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
@@ -4931,27 +4977,27 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4959,11 +5005,11 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
@@ -4974,13 +5020,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5031,53 +5077,53 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>298</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5089,13 +5135,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5146,25 +5192,25 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5185,11 +5231,11 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>80</v>
@@ -5204,17 +5250,15 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>136</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5263,10 +5307,10 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>80</v>
@@ -5275,66 +5319,62 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>140</v>
+        <v>307</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>173</v>
+        <v>309</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>78</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5382,25 +5422,25 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5414,14 +5454,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5437,19 +5477,19 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>314</v>
+        <v>156</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5475,13 +5515,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5499,7 +5539,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5511,22 +5551,22 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -5538,26 +5578,26 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>322</v>
@@ -5565,8 +5605,12 @@
       <c r="M36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5614,42 +5658,42 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>324</v>
+        <v>132</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5660,7 +5704,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5672,15 +5716,17 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5705,14 +5751,14 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>159</v>
+        <v>329</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5729,13 +5775,13 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
@@ -5747,24 +5793,24 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5772,7 +5818,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
@@ -5787,7 +5833,7 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>109</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>336</v>
@@ -5820,13 +5866,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -5844,10 +5890,10 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>89</v>
@@ -5862,24 +5908,24 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5899,16 +5945,16 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5935,13 +5981,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>346</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -5959,7 +6005,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -5977,10 +6023,10 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -5991,10 +6037,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6002,10 +6048,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6014,20 +6060,18 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>344</v>
+        <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6052,13 +6096,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6076,13 +6120,13 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
@@ -6091,19 +6135,251 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/finnish-base-profiles/StructureDefinition-fi-base-appointment.xlsx
+++ b/fhir/finnish-base-profiles/StructureDefinition-fi-base-appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="353">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-rc2</t>
+    <t>2.0.0-rc1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:31:48+03:00</t>
+    <t>2025-02-06T19:06:41+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,21 +428,21 @@
     <t>Appointment.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -452,47 +452,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Appointment.extension:restrictionParent</t>
-  </si>
-  <si>
-    <t>restrictionParent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fi/fhir/finnish-base-profiles/StructureDefinition/RestrictionParent}
-</t>
-  </si>
-  <si>
-    <t>Huoltajille luovuttamisen kielto</t>
-  </si>
-  <si>
-    <t>Huoltajille luovuttamisen kielto THL - Alaikäisen potilastietojen luovuttaminen huoltajille -luokitusta käyttäen. Sallitut arvot 1-4.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Appointment.extension:releaseDateForPatientViewing</t>
-  </si>
-  <si>
-    <t>releaseDateForPatientViewing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fi/fhir/finnish-base-profiles/StructureDefinition/ReleaseDateForPatientViewing}
-</t>
-  </si>
-  <si>
-    <t>ReleaseDateForPatientViewing</t>
-  </si>
-  <si>
-    <t>The extension indicates the end date of the delay, i.e. the first day when the delayed appointment information can be displayed (e.g Omakanta) / *Laajennuksella ilmoitetaan viivästämisen päättymispäivä eli ensimmäinen päivä, jolloin viivästetty asiakirja voidaan näyttää (esim. Omakannassa)*.</t>
-  </si>
-  <si>
     <t>Appointment.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -500,9 +460,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -1002,9 +959,6 @@
   </si>
   <si>
     <t>Appointment.participant.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1465,7 +1419,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1474,15 +1428,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.15234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.58984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.59375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.59375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1493,27 +1447,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="41.984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.40234375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.44921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="90.15234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="129.51171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2465,7 +2419,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2484,15 +2438,17 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2529,14 +2485,16 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -2557,7 +2515,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2574,41 +2532,43 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2656,7 +2616,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2665,7 +2625,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
@@ -2674,7 +2634,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2688,14 +2648,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2704,7 +2662,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -2713,16 +2671,16 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2773,7 +2731,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2782,44 +2740,44 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>78</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -2828,23 +2786,21 @@
         <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2868,13 +2824,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -2892,42 +2848,42 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2938,7 +2894,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -2950,13 +2906,13 @@
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2983,13 +2939,11 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -3007,13 +2961,13 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
@@ -3022,27 +2976,27 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3050,32 +3004,30 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3100,37 +3052,35 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AG14" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
@@ -3139,19 +3089,19 @@
         <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -3170,7 +3120,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3182,15 +3132,17 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3215,11 +3167,11 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3243,7 +3195,7 @@
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
@@ -3252,10 +3204,10 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3269,10 +3221,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3295,13 +3247,13 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3328,11 +3280,11 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3350,7 +3302,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3368,13 +3320,13 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -3382,10 +3334,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3396,7 +3348,7 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3408,17 +3360,15 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>196</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3443,11 +3393,11 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3465,13 +3415,13 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
@@ -3480,19 +3430,19 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -3523,7 +3473,7 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>200</v>
@@ -3558,9 +3508,11 @@
       <c r="X18" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y18" s="2"/>
+      <c r="Y18" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -3593,27 +3545,27 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3624,7 +3576,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3633,16 +3585,16 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3669,11 +3621,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -3691,13 +3645,13 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
@@ -3706,27 +3660,27 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3737,7 +3691,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -3746,18 +3700,20 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3782,13 +3738,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -3806,13 +3762,13 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
@@ -3821,27 +3777,27 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3852,7 +3808,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3864,13 +3820,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3921,13 +3877,13 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
@@ -3936,27 +3892,27 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3967,7 +3923,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -3979,17 +3935,15 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4038,13 +3992,13 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -4053,27 +4007,27 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4093,16 +4047,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4153,7 +4107,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4168,27 +4122,27 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4199,7 +4153,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4208,16 +4162,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4268,13 +4222,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4283,27 +4237,27 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4323,16 +4277,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4383,7 +4337,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4398,19 +4352,19 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -4429,7 +4383,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4438,16 +4392,16 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4504,7 +4458,7 @@
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4513,27 +4467,27 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4556,15 +4510,17 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4613,7 +4569,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4628,7 +4584,7 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>270</v>
@@ -4659,7 +4615,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4671,15 +4627,17 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4734,7 +4692,7 @@
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -4743,27 +4701,27 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4786,17 +4744,15 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N29" t="s" s="2">
         <v>281</v>
       </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4845,7 +4801,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4860,38 +4816,38 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4903,7 +4859,7 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>286</v>
@@ -4911,9 +4867,7 @@
       <c r="M30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N30" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4962,13 +4916,13 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
@@ -4977,27 +4931,27 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5005,10 +4959,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5020,13 +4974,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5077,53 +5031,53 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>241</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5135,13 +5089,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5192,25 +5146,25 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>302</v>
+        <v>173</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5231,11 +5185,11 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>80</v>
@@ -5250,15 +5204,17 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5307,10 +5263,10 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>80</v>
@@ -5319,62 +5275,66 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>307</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>173</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>236</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5422,25 +5382,25 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5454,14 +5414,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5477,19 +5437,19 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5515,13 +5475,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5539,7 +5499,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5551,22 +5511,22 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>186</v>
+        <v>318</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36">
@@ -5578,26 +5538,26 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>322</v>
@@ -5605,12 +5565,8 @@
       <c r="M36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5658,42 +5614,42 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5704,7 +5660,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5716,17 +5672,15 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5751,13 +5705,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>329</v>
+        <v>159</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -5775,13 +5729,13 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
@@ -5793,24 +5747,24 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>186</v>
+        <v>334</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5818,7 +5772,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
@@ -5833,7 +5787,7 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>335</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>336</v>
@@ -5866,13 +5820,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -5890,10 +5844,10 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>89</v>
@@ -5908,24 +5862,24 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5945,16 +5899,16 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>109</v>
+        <v>344</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5981,13 +5935,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6005,7 +5959,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6023,10 +5977,10 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>347</v>
+        <v>173</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6037,10 +5991,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6048,10 +6002,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6060,18 +6014,20 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>109</v>
+        <v>344</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6096,13 +6052,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6120,13 +6076,13 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
@@ -6135,251 +6091,19 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/finnish-base-profiles/StructureDefinition-fi-base-appointment.xlsx
+++ b/fhir/finnish-base-profiles/StructureDefinition-fi-base-appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="367">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-rc1</t>
+    <t>2.0.0-rc2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T19:06:41+02:00</t>
+    <t>2025-05-11T20:18:22+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,38 +428,81 @@
     <t>Appointment.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Appointment.extension:restrictionParent</t>
+  </si>
+  <si>
+    <t>restrictionParent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fi/fhir/finnish-base-profiles/StructureDefinition/RestrictionParent}
+</t>
+  </si>
+  <si>
+    <t>Huoltajille luovuttamisen kielto</t>
+  </si>
+  <si>
+    <t>Huoltajille luovuttamisen kielto THL - Alaikäisen potilastietojen luovuttaminen huoltajille -luokitusta käyttäen. Sallitut arvot 1-4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Appointment.extension:releaseDateForPatientViewing</t>
+  </si>
+  <si>
+    <t>releaseDateForPatientViewing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fi/fhir/finnish-base-profiles/StructureDefinition/ReleaseDateForPatientViewing}
+</t>
+  </si>
+  <si>
+    <t>ReleaseDateForPatientViewing</t>
+  </si>
+  <si>
+    <t>The extension indicates the end date of the delay, i.e. the first day when the delayed appointment information can be displayed (e.g Omakanta) / *Laajennuksella ilmoitetaan viivästämisen päättymispäivä eli ensimmäinen päivä, jolloin viivästetty asiakirja voidaan näyttää (esim. Omakannassa)*.</t>
+  </si>
+  <si>
+    <t>Appointment.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Appointment.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -959,6 +1002,9 @@
   </si>
   <si>
     <t>Appointment.participant.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1419,7 +1465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1428,15 +1474,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.59375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.15234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.58984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1447,27 +1493,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="41.984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.40234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.44921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="90.15234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="129.51171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="66.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2419,7 +2465,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2438,17 +2484,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2485,16 +2529,14 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -2515,7 +2557,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2532,43 +2574,41 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2616,7 +2656,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2625,7 +2665,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
@@ -2634,7 +2674,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2648,12 +2688,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2662,7 +2704,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -2671,16 +2713,16 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2731,7 +2773,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2740,44 +2782,44 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -2786,21 +2828,23 @@
         <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2824,13 +2868,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -2848,42 +2892,42 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2894,7 +2938,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -2906,13 +2950,13 @@
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2939,11 +2983,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -2961,13 +3007,13 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
@@ -2976,27 +3022,27 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3004,30 +3050,32 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3052,11 +3100,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3074,13 +3124,13 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
@@ -3089,19 +3139,19 @@
         <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -3120,7 +3170,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3132,17 +3182,15 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N15" t="s" s="2">
         <v>183</v>
       </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3167,11 +3215,11 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3195,7 +3243,7 @@
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
@@ -3204,10 +3252,10 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3221,10 +3269,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3247,13 +3295,13 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3280,11 +3328,11 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3302,7 +3350,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3320,13 +3368,13 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -3334,10 +3382,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3348,7 +3396,7 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3360,15 +3408,17 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3393,11 +3443,11 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3415,13 +3465,13 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
@@ -3430,19 +3480,19 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -3473,7 +3523,7 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>200</v>
@@ -3508,11 +3558,9 @@
       <c r="X18" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Y18" s="2"/>
+      <c r="Z18" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -3545,27 +3593,27 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO18" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3576,7 +3624,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3585,16 +3633,16 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3621,13 +3669,11 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -3645,13 +3691,13 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
@@ -3660,27 +3706,27 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3691,7 +3737,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -3700,20 +3746,18 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3738,13 +3782,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -3762,13 +3806,13 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
@@ -3777,27 +3821,27 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3808,7 +3852,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3820,13 +3864,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3877,13 +3921,13 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
@@ -3892,27 +3936,27 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3923,7 +3967,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -3935,15 +3979,17 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -3992,13 +4038,13 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -4007,27 +4053,27 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4047,16 +4093,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4107,7 +4153,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4122,27 +4168,27 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4153,7 +4199,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4162,16 +4208,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4222,13 +4268,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4237,27 +4283,27 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AM24" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AO24" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4277,16 +4323,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4337,7 +4383,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4352,19 +4398,19 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -4383,7 +4429,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4392,16 +4438,16 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4458,7 +4504,7 @@
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4467,27 +4513,27 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AM26" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4510,17 +4556,15 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4569,7 +4613,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4584,7 +4628,7 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>270</v>
@@ -4615,7 +4659,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4627,17 +4671,15 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N28" t="s" s="2">
         <v>275</v>
       </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4692,7 +4734,7 @@
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -4701,27 +4743,27 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="AM28" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4744,15 +4786,17 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4801,7 +4845,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4816,38 +4860,38 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4859,7 +4903,7 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>286</v>
@@ -4867,7 +4911,9 @@
       <c r="M30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4916,13 +4962,13 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
@@ -4931,27 +4977,27 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4959,11 +5005,11 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
@@ -4974,13 +5020,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5031,53 +5077,53 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>298</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5089,13 +5135,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5146,25 +5192,25 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5185,11 +5231,11 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>80</v>
@@ -5204,17 +5250,15 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>136</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5263,10 +5307,10 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>80</v>
@@ -5275,66 +5319,62 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>140</v>
+        <v>307</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>173</v>
+        <v>309</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>78</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5382,25 +5422,25 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5414,14 +5454,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5437,19 +5477,19 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>314</v>
+        <v>156</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5475,13 +5515,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5499,7 +5539,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5511,22 +5551,22 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -5538,26 +5578,26 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>322</v>
@@ -5565,8 +5605,12 @@
       <c r="M36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5614,42 +5658,42 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>324</v>
+        <v>132</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5660,7 +5704,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5672,15 +5716,17 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5705,14 +5751,14 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>159</v>
+        <v>329</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5729,13 +5775,13 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
@@ -5747,24 +5793,24 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5772,7 +5818,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
@@ -5787,7 +5833,7 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>109</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>336</v>
@@ -5820,13 +5866,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -5844,10 +5890,10 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>89</v>
@@ -5862,24 +5908,24 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5899,16 +5945,16 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5935,13 +5981,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>346</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -5959,7 +6005,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -5977,10 +6023,10 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -5991,10 +6037,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6002,10 +6048,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6014,20 +6060,18 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>344</v>
+        <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6052,13 +6096,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6076,13 +6120,13 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
@@ -6091,19 +6135,251 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
